--- a/Lin_Rohner_lab4/Data_lab4A_stiction torque/data_lab4A_stiction torque_05_cw.xlsx
+++ b/Lin_Rohner_lab4/Data_lab4A_stiction torque/data_lab4A_stiction torque_05_cw.xlsx
@@ -76,7 +76,7 @@
         <v>-0.003550</v>
       </c>
       <c r="C2" s="1">
-        <v>20.052456</v>
+        <v>-2.717172</v>
       </c>
       <c r="D2" s="1">
         <v>0.049072</v>
@@ -87,10 +87,10 @@
         <v>1.000000</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.007835</v>
+        <v>0.000735</v>
       </c>
       <c r="C3" s="1">
-        <v>20.052456</v>
+        <v>-2.668100</v>
       </c>
       <c r="D3" s="1">
         <v>0.000000</v>
@@ -101,13 +101,13 @@
         <v>2.000000</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.012120</v>
+        <v>0.005020</v>
       </c>
       <c r="C4" s="1">
-        <v>20.052456</v>
+        <v>-2.815317</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000000</v>
+        <v>0.147217</v>
       </c>
     </row>
     <row r="5">
@@ -115,55 +115,13 @@
         <v>3.000000</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.016405</v>
+        <v>0.009305</v>
       </c>
       <c r="C5" s="1">
-        <v>20.052456</v>
+        <v>-3.698622</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4.000000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-0.020690</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20.052456</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.000000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>5.000000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-0.024975</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20.297818</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.245362</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6.000000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-0.029260</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20.984833</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.687015</v>
+        <v>1.030522</v>
       </c>
     </row>
   </sheetData>
